--- a/5.Clustering/Clustering_step_by_step.xlsx
+++ b/5.Clustering/Clustering_step_by_step.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paragpradhan/Documents/Data Science Course/DS-Intro/5.Clustering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F03D5F3C-74D3-1D4F-8AA3-9B0BE8ECDBB7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21BDEC2-1FF7-4C41-B374-F98707144FB1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16120" xr2:uid="{588698A1-F7A6-2641-986E-1F9334812284}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16000" windowHeight="12000" activeTab="1" xr2:uid="{588698A1-F7A6-2641-986E-1F9334812284}"/>
   </bookViews>
   <sheets>
     <sheet name="Kmeans" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="30">
   <si>
     <t>Age</t>
   </si>
@@ -65,18 +65,12 @@
     <t>Final Centroids</t>
   </si>
   <si>
-    <t>Step1: Create Upper Triangular Distance Matrix</t>
-  </si>
-  <si>
     <t>Step2: Update Minimum distance of all the points from new Cluster</t>
   </si>
   <si>
     <t>Cluster:</t>
   </si>
   <si>
-    <t>0,1</t>
-  </si>
-  <si>
     <t>Step3: Update Minimum distance of all the points from new Cluster</t>
   </si>
   <si>
@@ -96,6 +90,39 @@
   </si>
   <si>
     <t>C1[0,4]</t>
+  </si>
+  <si>
+    <t>C[2,1]</t>
+  </si>
+  <si>
+    <t>C[2,2]</t>
+  </si>
+  <si>
+    <t>C[1,3]</t>
+  </si>
+  <si>
+    <t>Step1: Create Lower Triangular Distance Matrix</t>
+  </si>
+  <si>
+    <t>0,4</t>
+  </si>
+  <si>
+    <t>C[2,3]</t>
+  </si>
+  <si>
+    <t>C[0,1,4]</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>C2[0,1,4,2,3,5]</t>
+  </si>
+  <si>
+    <t>0,1,4,2,3,5,</t>
+  </si>
+  <si>
+    <t>C2[0,1,4,2,3,5,6]</t>
   </si>
 </sst>
 </file>
@@ -106,7 +133,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -136,8 +163,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,6 +206,18 @@
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF757171"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -218,12 +264,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -539,13 +585,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A12DDFF-F985-654E-8A57-3295AB8E6FF1}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView zoomScale="83" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -559,7 +610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
         <v>0</v>
       </c>
@@ -578,8 +629,11 @@
       <c r="G2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -587,15 +641,21 @@
         <v>23</v>
       </c>
       <c r="C3" s="9">
-        <v>145000</v>
+        <v>14500</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="F3" s="3">
+        <f>((B2- $B$2)^2 + (C2 - $C$2)^2)^0.5</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <f>((B2 - $B$5)^2 + (C2 - $C$5)^2)^0.5</f>
+        <v>1500.0119999520005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>2</v>
       </c>
@@ -608,10 +668,16 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="F4" s="3">
+        <f t="shared" ref="F4:F9" si="0">((B3- $B$2)^2 + (C3 - $C$2)^2)^0.5</f>
+        <v>500.00399998400013</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" ref="G4:G9" si="1">((B3 - $B$5)^2 + (C3 - $C$5)^2)^0.5</f>
+        <v>2000.0159999360005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>3</v>
       </c>
@@ -624,10 +690,16 @@
       <c r="E5">
         <v>2</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="F5" s="3">
+        <f t="shared" si="0"/>
+        <v>2000.0022499987344</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="1"/>
+        <v>500.00899991900144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>4</v>
       </c>
@@ -640,10 +712,16 @@
       <c r="E6">
         <v>3</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
+        <v>1500.0119999520005</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>5</v>
       </c>
@@ -656,10 +734,16 @@
       <c r="E7">
         <v>4</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>200.00249998437519</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="1"/>
+        <v>1700.0073529252747</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>6</v>
       </c>
@@ -672,17 +756,29 @@
       <c r="E8">
         <v>5</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>2500.0127999672322</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="1"/>
+        <v>1000.001999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E9">
         <v>6</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>6000.0163333111022</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="1"/>
+        <v>4500.0071111054922</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -692,8 +788,11 @@
       <c r="C10">
         <v>15000</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -703,11 +802,14 @@
       <c r="C11">
         <v>16500</v>
       </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
       <c r="E11" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E12" t="s">
         <v>2</v>
       </c>
@@ -718,54 +820,124 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <f>AVERAGE(B2,B3,B6)</f>
+        <v>24.666666666666668</v>
+      </c>
+      <c r="C13">
+        <f>AVERAGE(C2,C3,C6)</f>
+        <v>14766.666666666666</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="F13" s="3">
+        <f>((B2-$B$13)^2 + (C2-$C$13)^2)^0.5</f>
+        <v>233.33357142845057</v>
+      </c>
+      <c r="G13" s="3">
+        <f>((B2 - $B$14)^2 + (C2 - $C$14)^2)^0.5</f>
+        <v>3000.0100103999653</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <f>AVERAGE(B4,B5,B7,B8)</f>
+        <v>32.75</v>
+      </c>
+      <c r="C14">
+        <f>AVERAGE(C4,C5,C7,C8)</f>
+        <v>18000</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="F14" s="3">
+        <f t="shared" ref="F14:F19" si="2">((B3-$B$13)^2 + (C3-$C$13)^2)^0.5</f>
+        <v>266.67187494913776</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" ref="G14:G19" si="3">((B3 - $B$14)^2 + (C3 - $C$14)^2)^0.5</f>
+        <v>3500.0135803307962</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E15">
         <v>2</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="F15" s="3">
+        <f t="shared" si="2"/>
+        <v>2233.3358208941377</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="3"/>
+        <v>1000.0112811863675</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E16">
         <v>3</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="5:7">
+      <c r="F16" s="3">
+        <f t="shared" si="2"/>
+        <v>1733.3449038075364</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="3"/>
+        <v>1500.0010208329859</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E17">
         <v>4</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="5:7">
+      <c r="F17" s="3">
+        <f t="shared" si="2"/>
+        <v>33.35998934185875</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="3"/>
+        <v>3200.0071191327061</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E18">
         <v>5</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="5:7">
+      <c r="F18" s="3">
+        <f t="shared" si="2"/>
+        <v>2733.3460365558471</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="3"/>
+        <v>500.00006249999609</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E19">
         <v>6</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="F19" s="3">
+        <f t="shared" si="2"/>
+        <v>6233.349812812442</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="3"/>
+        <v>3000.0065104096025</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -774,17 +946,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEBB0082-CD6D-1B4E-AE2F-DD80DBDEAAE9}">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
     <col min="6" max="6" width="11.1640625" customWidth="1"/>
     <col min="7" max="12" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -795,10 +970,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -813,14 +988,14 @@
       </c>
       <c r="F2" s="8"/>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M2">
         <f>MIN(F2:K8)</f>
         <v>200.00249998437519</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -833,19 +1008,19 @@
       <c r="E3" s="12">
         <v>1</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="17">
         <f>((B3-$B$2)^2+(C3-$C$2)^2)^0.5</f>
         <v>500.00399998400013</v>
       </c>
       <c r="G3" s="8"/>
       <c r="L3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -858,7 +1033,7 @@
       <c r="E4" s="11">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="18">
         <f t="shared" ref="F4:F8" si="0">((B4-$B$2)^2+(C4-$C$2)^2)^0.5</f>
         <v>2000.0022499987344</v>
       </c>
@@ -868,7 +1043,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -895,7 +1070,7 @@
       </c>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -916,7 +1091,7 @@
         <f t="shared" si="1"/>
         <v>300.01499962501873</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="18">
         <f t="shared" si="2"/>
         <v>2200.0009090907211</v>
       </c>
@@ -926,7 +1101,7 @@
       </c>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -961,7 +1136,7 @@
       </c>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1000,7 +1175,7 @@
       </c>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="F9" s="12">
         <v>0</v>
       </c>
@@ -1023,283 +1198,506 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E13" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
+        <v>23</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
       <c r="L13" s="13"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E14" s="11">
+        <v>1</v>
+      </c>
+      <c r="F14" s="16">
+        <v>300.01499962501873</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="13"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E15" s="11">
         <v>2</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="13"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="E15" s="11">
-        <v>3</v>
-      </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
+      <c r="F15" s="16">
+        <v>2000.0022499987344</v>
+      </c>
+      <c r="G15" s="16">
+        <v>2500.0049999950002</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
       <c r="L15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M15" s="5">
         <f>MIN(F14:K18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>300.01499962501873</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E16" s="11">
-        <v>4</v>
-      </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
+        <v>3</v>
+      </c>
+      <c r="F16" s="16">
+        <v>1500</v>
+      </c>
+      <c r="G16" s="16">
+        <v>2000</v>
+      </c>
+      <c r="H16" s="16">
+        <v>500.01</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
       <c r="L16" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="5:13">
+        <v>11</v>
+      </c>
+      <c r="M16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E17" s="11">
         <v>5</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="15"/>
+      <c r="F17" s="16">
+        <v>2500.0128</v>
+      </c>
+      <c r="G17" s="13">
+        <v>3000</v>
+      </c>
+      <c r="H17" s="13">
+        <v>500.02</v>
+      </c>
+      <c r="I17" s="16">
+        <v>1000</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="14"/>
       <c r="L17" s="13"/>
     </row>
-    <row r="18" spans="5:13">
+    <row r="18" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E18" s="11">
         <v>6</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="17"/>
+      <c r="F18" s="16">
+        <v>6000.0163000000002</v>
+      </c>
+      <c r="G18" s="13">
+        <v>6500</v>
+      </c>
+      <c r="H18" s="13">
+        <v>4000</v>
+      </c>
+      <c r="I18" s="13">
+        <v>4500</v>
+      </c>
+      <c r="J18" s="14">
+        <v>3500</v>
+      </c>
+      <c r="K18" s="8"/>
       <c r="L18" s="13"/>
     </row>
-    <row r="19" spans="5:13">
+    <row r="19" spans="5:13" x14ac:dyDescent="0.2">
       <c r="F19" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="11">
+        <v>1</v>
+      </c>
+      <c r="H19" s="11">
+        <v>2</v>
+      </c>
+      <c r="I19" s="11">
+        <v>3</v>
+      </c>
+      <c r="J19" s="11">
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <v>6</v>
+      </c>
+      <c r="L19" s="13"/>
+    </row>
+    <row r="21" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E21" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="13"/>
+    </row>
+    <row r="23" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E23" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="13"/>
+    </row>
+    <row r="24" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E24" s="11">
+        <v>2</v>
+      </c>
+      <c r="F24" s="14">
+        <v>2000</v>
+      </c>
+      <c r="G24" s="8"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M24">
+        <f>MIN(F23:I26)</f>
+        <v>500.01</v>
+      </c>
+    </row>
+    <row r="25" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E25" s="11">
+        <v>3</v>
+      </c>
+      <c r="F25" s="14">
+        <v>1500</v>
+      </c>
+      <c r="G25" s="16">
+        <v>500.01</v>
+      </c>
+      <c r="H25" s="8"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="M25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E26" s="11">
+        <v>5</v>
+      </c>
+      <c r="F26" s="14">
+        <v>2500</v>
+      </c>
+      <c r="G26" s="13">
+        <v>500.02</v>
+      </c>
+      <c r="H26" s="16">
+        <v>1000</v>
+      </c>
+      <c r="I26" s="8"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="13"/>
+    </row>
+    <row r="27" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E27" s="11">
+        <v>6</v>
+      </c>
+      <c r="F27" s="14">
+        <v>6000</v>
+      </c>
+      <c r="G27" s="13">
+        <v>4000</v>
+      </c>
+      <c r="H27" s="13">
+        <v>4500</v>
+      </c>
+      <c r="I27" s="14">
+        <v>3500</v>
+      </c>
+      <c r="J27" s="8"/>
+      <c r="L27" s="13"/>
+    </row>
+    <row r="28" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="F28" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="12">
+        <v>2</v>
+      </c>
+      <c r="H28" s="11">
+        <v>3</v>
+      </c>
+      <c r="I28" s="11">
+        <v>5</v>
+      </c>
+      <c r="J28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E29" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="F30" s="15"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="13"/>
+    </row>
+    <row r="31" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E31" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="13"/>
+    </row>
+    <row r="32" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E32" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="11">
-        <v>2</v>
-      </c>
-      <c r="H19" s="11">
-        <v>3</v>
-      </c>
-      <c r="I19" s="11">
-        <v>4</v>
-      </c>
-      <c r="J19" s="11">
-        <v>5</v>
-      </c>
-      <c r="K19" s="11">
-        <v>6</v>
-      </c>
-      <c r="L19" s="13"/>
-    </row>
-    <row r="21" spans="5:13">
-      <c r="E21" s="1" t="s">
+      <c r="F32" s="4">
+        <v>1500</v>
+      </c>
+      <c r="G32" s="8"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M32">
+        <f>MIN(F31:I34)</f>
+        <v>500.02</v>
+      </c>
+    </row>
+    <row r="33" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E33" s="11">
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <v>2500</v>
+      </c>
+      <c r="G33" s="13">
+        <v>500.02</v>
+      </c>
+      <c r="H33" s="8"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="M33" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="5:13">
-      <c r="E22" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="13"/>
-    </row>
-    <row r="23" spans="5:13">
-      <c r="E23" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="13"/>
-    </row>
-    <row r="24" spans="5:13">
-      <c r="E24" s="11">
-        <v>4</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="13"/>
-    </row>
-    <row r="25" spans="5:13">
-      <c r="E25" s="11">
-        <v>5</v>
-      </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="M25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="5:13">
-      <c r="E26" s="11">
-        <v>6</v>
-      </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="13"/>
-    </row>
-    <row r="27" spans="5:13">
-      <c r="F27" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="11">
-        <v>4</v>
-      </c>
-      <c r="I27" s="11">
-        <v>5</v>
-      </c>
-      <c r="J27" s="11">
-        <v>6</v>
-      </c>
-      <c r="L27" s="13"/>
-    </row>
-    <row r="29" spans="5:13">
-      <c r="E29" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="5:13">
-      <c r="E30" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="13"/>
-    </row>
-    <row r="31" spans="5:13">
-      <c r="E31" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="13"/>
-    </row>
-    <row r="32" spans="5:13">
-      <c r="E32" s="11">
-        <v>4</v>
-      </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="13"/>
-    </row>
-    <row r="33" spans="5:13">
-      <c r="E33" s="11">
-        <v>5</v>
-      </c>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="M33" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="5:13">
+    <row r="34" spans="5:13" x14ac:dyDescent="0.2">
       <c r="E34" s="11">
         <v>6</v>
       </c>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
+      <c r="F34">
+        <v>6000</v>
+      </c>
+      <c r="G34" s="13">
+        <v>4000</v>
+      </c>
+      <c r="H34" s="13">
+        <v>3500</v>
+      </c>
+      <c r="I34" s="8"/>
       <c r="J34" s="13"/>
-      <c r="K34" s="17"/>
+      <c r="K34" s="16"/>
       <c r="L34" s="13"/>
     </row>
-    <row r="35" spans="5:13">
+    <row r="35" spans="5:13" x14ac:dyDescent="0.2">
       <c r="F35" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G35" s="12" t="s">
-        <v>15</v>
-      </c>
       <c r="H35" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I35" s="11">
-        <v>5</v>
-      </c>
-      <c r="J35" s="11">
         <v>6</v>
       </c>
+      <c r="J35" s="14"/>
       <c r="L35" s="13"/>
+    </row>
+    <row r="38" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="F38" s="14"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="13"/>
+    </row>
+    <row r="39" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E39" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="8"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M39">
+        <f>MIN(F38:I41)</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="40" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E40" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40">
+        <v>1500</v>
+      </c>
+      <c r="G40" s="8"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="M40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E41" s="11">
+        <v>6</v>
+      </c>
+      <c r="F41">
+        <v>6000</v>
+      </c>
+      <c r="G41" s="13">
+        <v>3500</v>
+      </c>
+      <c r="H41" s="8"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="13"/>
+    </row>
+    <row r="42" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="F42" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" s="11">
+        <v>6</v>
+      </c>
+      <c r="I42" s="11"/>
+      <c r="J42" s="14"/>
+      <c r="L42" s="13"/>
+    </row>
+    <row r="45" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E45" s="12"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M45">
+        <f>MIN(F44:I47)</f>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="46" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E46" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" s="8"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="M46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="E47" s="11">
+        <v>6</v>
+      </c>
+      <c r="F47" s="14">
+        <v>3500</v>
+      </c>
+      <c r="G47" s="8"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="13"/>
+    </row>
+    <row r="48" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="F48" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G48" s="12">
+        <v>6</v>
+      </c>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="L48" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="M48" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1310,19 +1708,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE885862-95D5-E140-89DD-7EBF637FD475}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView zoomScale="75" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1336,7 +1734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1356,7 +1754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1378,7 +1776,7 @@
         <v>1500.0119999520005</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1400,7 +1798,7 @@
         <v>2000.0159999360005</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1422,7 +1820,7 @@
         <v>500.00899991900144</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1444,7 +1842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1466,7 +1864,7 @@
         <v>1700.0073529252747</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1488,7 +1886,7 @@
         <v>1000.001999998</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E9">
         <v>6</v>
       </c>
@@ -1501,7 +1899,7 @@
         <v>4500.0071111054922</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1515,7 +1913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1532,7 +1930,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E12" t="s">
         <v>2</v>
       </c>
@@ -1543,7 +1941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1570,7 +1968,7 @@
         <v>3000.0100103999653</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1597,7 +1995,7 @@
         <v>3500.0135803307962</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E15">
         <v>2</v>
       </c>
@@ -1610,7 +2008,7 @@
         <v>1000.0112811863675</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>9</v>
       </c>
@@ -1635,7 +2033,7 @@
         <v>1500.0010208329859</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="6" t="s">
         <v>5</v>
@@ -1658,7 +2056,7 @@
         <v>3200.0071191327061</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E18">
         <v>5</v>
       </c>
@@ -1671,7 +2069,7 @@
         <v>500.00006249999609</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E19">
         <v>6</v>
       </c>
